--- a/aidants_connect_web/fixtures/import-aidants/edge-cases/clean-username-and-email.xlsx
+++ b/aidants_connect_web/fixtures/import-aidants/edge-cases/clean-username-and-email.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/ahr/Code/Aidants_Connect/aidants_connect_web/fixtures/import-aidants/edge-cases/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{58A04CFC-7E8F-674F-8D51-16B0B3FDBDE7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{898B06D0-E828-8A47-9161-E19CED0D860B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="940" yWindow="560" windowWidth="27860" windowHeight="17440" xr2:uid="{BEEF2C64-65BD-4D43-B9B0-F70D0F512F29}"/>
   </bookViews>
@@ -126,9 +126,8 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
@@ -448,7 +447,7 @@
   <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
-      <selection activeCell="B3" sqref="B3"/>
+      <selection activeCell="B8" sqref="B8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -477,11 +476,11 @@
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>8</v>
       </c>
       <c r="B2">
-        <v>1</v>
+        <v>4444</v>
       </c>
       <c r="C2" t="s">
         <v>9</v>
@@ -494,11 +493,11 @@
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A3" s="2" t="s">
+      <c r="A3" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B3" s="1">
-        <v>1</v>
+      <c r="B3">
+        <v>4444</v>
       </c>
       <c r="C3" t="s">
         <v>13</v>
@@ -511,11 +510,11 @@
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="B4" s="1">
-        <v>1</v>
+      <c r="B4">
+        <v>4444</v>
       </c>
       <c r="C4" t="s">
         <v>13</v>
